--- a/P0041/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0041/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0041/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="13_ncr:1_{1D7B3DCB-0971-4C17-99FE-F3AADCF7D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2A5F45-4E85-47A6-9F89-556174F5A209}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="13_ncr:1_{1D7B3DCB-0971-4C17-99FE-F3AADCF7D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7452ADEE-793A-43D0-8247-F2F736782836}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$29</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1128,8 +1128,8 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2781,15 +2781,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -2933,10 +2924,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0041/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0041/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0041/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="650" documentId="13_ncr:1_{1D7B3DCB-0971-4C17-99FE-F3AADCF7D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7452ADEE-793A-43D0-8247-F2F736782836}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="13_ncr:1_{1D7B3DCB-0971-4C17-99FE-F3AADCF7D01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDEC5FFE-BB43-48F7-B550-D4304ABE5F0D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -632,11 +632,11 @@
     <t>El Plan de Ordenación y Manejo de la Cuenca Hidrográfica del Río Bajo San Jorge (POMCA) fue desarrollado con el objetivo de formular un plan integral para la gestión sostenible de los recursos naturales y la reducción de riesgos en la cuenca. Este plan es fundamental dadas las afectaciones ambientales, sociales y económicas que sufrió la región durante el fenómeno de La Niña en 2010-2011. El proyecto fue estructurado en cuatro fases principales: Aprestamiento, Diagnóstico, Prospectiva y Zonificación Ambiental, y Formulación.</t>
   </si>
   <si>
-    <t xml:space="preserve">El Plan de Ordenación y Manejo de la Cuenca Hidrográfica del Río Bajo San Jorge (POMCA) fue desarrollado con el objetivo de formular un plan integral para la gestión sostenible de los recursos naturales y la reducción de riesgos en la cuenca. Este plan es fundamental dadas las afectaciones ambientales, sociales y económicas que sufrió la región durante el fenómeno de La Niña en 2010-2011. El proyecto fue estructurado en cuatro fases principales: Aprestamiento, Diagnóstico, Prospectiva y Zonificación Ambiental, y Formulación._x000D_
-En la Fase de Aprestamiento, se identificaron y priorizaron los actores clave en la cuenca, se diseñó una estrategia de participación y se recopiló y analizó la información existente sobre la cuenca. Este análisis inicial estableció las bases para las fases siguientes al proporcionar un entendimiento claro de los recursos y desafíos de la cuenca._x000D_
-Durante la Fase de Diagnóstico, se evaluó el estado actual de la cuenca en términos físicos, bióticos, socioeconómicos, culturales y de gestión del riesgo. Se realizaron análisis detallados de la geología, geomorfología, hidrología y calidad del recurso hídrico, entre otros. Esta fase permitió identificar las principales problemáticas de la cuenca, incluyendo áreas críticas y conflictos ambientales._x000D_
-La Fase de Prospectiva y Zonificación Ambiental se enfocó en la proyección de escenarios futuros para la cuenca. Se desarrollaron escenarios tendenciales, que muestran cómo evolucionaría la cuenca sin intervención alguna, y escenarios deseados, construidos con la participación de actores sociales, que reflejan una visión sostenible del futuro de la cuenca. Se definieron unidades homogéneas para la zonificación ambiental basadas en criterios biofísicos, lo que permitió delinear áreas prioritarias para la conservación y el desarrollo._x000D_
-Finalmente, en la Fase de Formulación, se diseñaron los componentes programáticos del POMCA, que incluyen objetivos, estrategias, programas y proyectos específicos para la gestión del riesgo y la administración de los recursos naturales. Se establecieron las medidas necesarias para implementar el plan y se definieron las responsabilidades de los diferentes actores involucrados._x000D_
+    <t xml:space="preserve">El Plan de Ordenación y Manejo de la Cuenca Hidrográfica del Río Bajo San Jorge (POMCA) fue desarrollado con el objetivo de formular un plan integral para la gestión sostenible de los recursos naturales y la reducción de riesgos en la cuenca. Este plan es fundamental dadas las afectaciones ambientales, sociales y económicas que sufrió la región durante el fenómeno de La Niña en 2010-2011. El proyecto fue estructurado en cuatro fases principales: Aprestamiento, Diagnóstico, Prospectiva y Zonificación Ambiental, y Formulación.
+En la Fase de Aprestamiento, se identificaron y priorizaron los actores clave en la cuenca, se diseñó una estrategia de participación y se recopiló y analizó la información existente sobre la cuenca. Este análisis inicial estableció las bases para las fases siguientes al proporcionar un entendimiento claro de los recursos y desafíos de la cuenca.
+Durante la Fase de Diagnóstico, se evaluó el estado actual de la cuenca en términos físicos, bióticos, socioeconómicos, culturales y de gestión del riesgo. Se realizaron análisis detallados de la geología, geomorfología, hidrología y calidad del recurso hídrico, entre otros. Esta fase permitió identificar las principales problemáticas de la cuenca, incluyendo áreas críticas y conflictos ambientales.
+La Fase de Prospectiva y Zonificación Ambiental se enfocó en la proyección de escenarios futuros para la cuenca. Se desarrollaron escenarios tendenciales, que muestran cómo evolucionaría la cuenca sin intervención alguna, y escenarios deseados, construidos con la participación de actores sociales, que reflejan una visión sostenible del futuro de la cuenca. Se definieron unidades homogéneas para la zonificación ambiental basadas en criterios biofísicos, lo que permitió delinear áreas prioritarias para la conservación y el desarrollo.
+Finalmente, en la Fase de Formulación, se diseñaron los componentes programáticos del POMCA, que incluyen objetivos, estrategias, programas y proyectos específicos para la gestión del riesgo y la administración de los recursos naturales. Se establecieron las medidas necesarias para implementar el plan y se definieron las responsabilidades de los diferentes actores involucrados.
 El proyecto concluyó con la propuesta de un plan operativo y una estructura administrativa para asegurar la implementación y seguimiento efectivo del POMCA. </t>
   </si>
   <si>
@@ -782,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1128,17 +1128,17 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="172.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1152,7 +1152,7 @@
     <col min="17" max="17" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2303,7 +2303,7 @@
       <c r="J21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="3" t="s">
         <v>171</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -2312,7 +2312,7 @@
       <c r="M21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="3" t="s">
         <v>172</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -2328,7 +2328,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15">
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="M23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="3" t="s">
         <v>188</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -2440,7 +2440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -2934,9 +2934,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>